--- a/output/1Y_P81_KFSDIV.xlsx
+++ b/output/1Y_P81_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.5675</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E3" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="F3" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="H3" s="1">
-        <v>9431.659</v>
+        <v>9394.071</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9431.659</v>
+        <v>9394.071</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0568</v>
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.0064</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E4" s="1">
-        <v>1949.5996</v>
+        <v>1945.7047</v>
       </c>
       <c r="F4" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="H4" s="1">
-        <v>19508.4733</v>
+        <v>19430.5853</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19508.4733</v>
+        <v>19430.5853</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2585</v>
+        <v>10.2791</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.004</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>10.0129</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E5" s="1">
-        <v>2948.96</v>
+        <v>2943.0617</v>
       </c>
       <c r="F5" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="H5" s="1">
-        <v>29527.6415</v>
+        <v>29409.7212</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29527.6415</v>
+        <v>29409.7212</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1731</v>
+        <v>10.1935</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>526.3919</v>
+        <v>525.3403</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9473.608099999999</v>
+        <v>-9474.6597</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.4583</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E6" s="1">
-        <v>3947.6717</v>
+        <v>3939.7725</v>
       </c>
       <c r="F6" s="1">
-        <v>962.4699000000001</v>
+        <v>960.5286</v>
       </c>
       <c r="H6" s="1">
-        <v>41285.9345</v>
+        <v>41120.982</v>
       </c>
       <c r="I6" s="1">
-        <v>526.3919</v>
+        <v>525.3403</v>
       </c>
       <c r="J6" s="1">
-        <v>41812.3263</v>
+        <v>41646.3222</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1326</v>
+        <v>10.1529</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10065.799</v>
+        <v>-10065.6675</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0578</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.3341</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E7" s="1">
-        <v>4910.1416</v>
+        <v>4900.3012</v>
       </c>
       <c r="F7" s="1">
-        <v>974.0373</v>
+        <v>972.0774</v>
       </c>
       <c r="H7" s="1">
-        <v>50741.8939</v>
+        <v>50538.766</v>
       </c>
       <c r="I7" s="1">
-        <v>460.5929</v>
+        <v>459.6727</v>
       </c>
       <c r="J7" s="1">
-        <v>51202.4868</v>
+        <v>50998.4387</v>
       </c>
       <c r="K7" s="1">
-        <v>50065.799</v>
+        <v>50065.6675</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1964</v>
+        <v>10.2169</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10065.799</v>
+        <v>-10065.6675</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0118</v>
+        <v>-0.0125</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5884.1789</v>
+        <v>5872.3786</v>
       </c>
       <c r="F8" s="1">
-        <v>1018.3314</v>
+        <v>1016.2824</v>
       </c>
       <c r="H8" s="1">
-        <v>58162.7544</v>
+        <v>57929.8405</v>
       </c>
       <c r="I8" s="1">
-        <v>394.7939</v>
+        <v>394.0052</v>
       </c>
       <c r="J8" s="1">
-        <v>58557.5484</v>
+        <v>58323.8457</v>
       </c>
       <c r="K8" s="1">
-        <v>60131.598</v>
+        <v>60131.3351</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2192</v>
+        <v>10.2397</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2209.5637</v>
+        <v>2205.1355</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7856.2353</v>
+        <v>-7860.532</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0432</v>
+        <v>-0.0438</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D9" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6902.5103</v>
+        <v>6888.661</v>
       </c>
       <c r="F9" s="1">
-        <v>1054.1973</v>
+        <v>1051.9844</v>
       </c>
       <c r="H9" s="1">
-        <v>68800.7715</v>
+        <v>68525.6444</v>
       </c>
       <c r="I9" s="1">
-        <v>2538.5586</v>
+        <v>2533.4732</v>
       </c>
       <c r="J9" s="1">
-        <v>71339.3302</v>
+        <v>71059.1176</v>
       </c>
       <c r="K9" s="1">
-        <v>70197.397</v>
+        <v>70197.00260000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1698</v>
+        <v>10.1902</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10507.7117</v>
+        <v>-10506.6946</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0406</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.4908</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E10" s="1">
-        <v>7956.7076</v>
+        <v>7940.6455</v>
       </c>
       <c r="F10" s="1">
-        <v>1001.6121</v>
+        <v>999.5143</v>
       </c>
       <c r="H10" s="1">
-        <v>83472.22840000001</v>
+        <v>83136.9699</v>
       </c>
       <c r="I10" s="1">
-        <v>2030.8469</v>
+        <v>2026.7786</v>
       </c>
       <c r="J10" s="1">
-        <v>85503.0753</v>
+        <v>85163.7484</v>
       </c>
       <c r="K10" s="1">
-        <v>80705.1087</v>
+        <v>80703.6972</v>
       </c>
       <c r="L10" s="1">
-        <v>10.143</v>
+        <v>10.1634</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10507.7117</v>
+        <v>-10506.6946</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0512</v>
+        <v>0.0506</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.6308</v>
       </c>
       <c r="C11" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D11" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E11" s="1">
-        <v>8958.3197</v>
+        <v>8940.159799999999</v>
       </c>
       <c r="F11" s="1">
-        <v>988.4215</v>
+        <v>986.3496</v>
       </c>
       <c r="H11" s="1">
-        <v>95234.1048</v>
+        <v>94850.6253</v>
       </c>
       <c r="I11" s="1">
-        <v>1523.1352</v>
+        <v>1520.0839</v>
       </c>
       <c r="J11" s="1">
-        <v>96757.24000000001</v>
+        <v>96370.7092</v>
       </c>
       <c r="K11" s="1">
-        <v>91212.8204</v>
+        <v>91210.3919</v>
       </c>
       <c r="L11" s="1">
-        <v>10.1819</v>
+        <v>10.2023</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10507.7117</v>
+        <v>-10506.6946</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0131</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.3176</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E12" s="1">
-        <v>9946.7412</v>
+        <v>9926.509400000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1018.426</v>
+        <v>1016.2884</v>
       </c>
       <c r="H12" s="1">
-        <v>102626.4972</v>
+        <v>102213.2672</v>
       </c>
       <c r="I12" s="1">
-        <v>1015.4235</v>
+        <v>1013.3893</v>
       </c>
       <c r="J12" s="1">
-        <v>103641.9207</v>
+        <v>103226.6565</v>
       </c>
       <c r="K12" s="1">
-        <v>101720.5321</v>
+        <v>101717.0865</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2265</v>
+        <v>10.247</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10507.7117</v>
+        <v>-10506.6946</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0292</v>
+        <v>-0.0296</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.2392</v>
       </c>
       <c r="C13" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D13" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E13" s="1">
-        <v>10965.1672</v>
+        <v>10942.7978</v>
       </c>
       <c r="F13" s="1">
-        <v>1026.2239</v>
+        <v>1024.0743</v>
       </c>
       <c r="H13" s="1">
-        <v>112274.5398</v>
+        <v>111821.1681</v>
       </c>
       <c r="I13" s="1">
-        <v>507.7117</v>
+        <v>506.6946</v>
       </c>
       <c r="J13" s="1">
-        <v>112782.2516</v>
+        <v>112327.8627</v>
       </c>
       <c r="K13" s="1">
-        <v>112228.2439</v>
+        <v>112223.7812</v>
       </c>
       <c r="L13" s="1">
-        <v>10.235</v>
+        <v>10.2555</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10507.7117</v>
+        <v>-10506.6946</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0076</v>
+        <v>-0.007900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D14" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>11991.3911</v>
+        <v>11966.8721</v>
       </c>
       <c r="F14" s="1">
-        <v>-11991.3911</v>
+        <v>-11966.8721</v>
       </c>
       <c r="H14" s="1">
-        <v>119660.8925</v>
+        <v>119178.079</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119660.8925</v>
+        <v>119178.079</v>
       </c>
       <c r="K14" s="1">
-        <v>122735.9556</v>
+        <v>122730.4758</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2353</v>
+        <v>10.2559</v>
       </c>
       <c r="M14" s="1">
         <v>0.25</v>
       </c>
       <c r="N14" s="1">
-        <v>2467.1626</v>
+        <v>2462.1295</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122128.0551</v>
+        <v>121640.2085</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0254</v>
+        <v>-0.0257</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.5675</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E3" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="F3" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9431.659</v>
+        <v>9394.071</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9431.659</v>
+        <v>9394.071</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0568</v>
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.0064</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E4" s="1">
-        <v>1949.5996</v>
+        <v>1945.7047</v>
       </c>
       <c r="F4" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19508.4733</v>
+        <v>19430.5853</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19508.4733</v>
+        <v>19430.5853</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2585</v>
+        <v>10.2791</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.004</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>10.0129</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E5" s="1">
-        <v>2948.96</v>
+        <v>2943.0617</v>
       </c>
       <c r="F5" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29527.6415</v>
+        <v>29409.7212</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29527.6415</v>
+        <v>29409.7212</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1731</v>
+        <v>10.1935</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>526.3919</v>
+        <v>525.3403</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9473.608099999999</v>
+        <v>-9474.6597</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.4583</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E6" s="1">
-        <v>3947.6717</v>
+        <v>3939.7725</v>
       </c>
       <c r="F6" s="1">
-        <v>833.2201</v>
+        <v>850.6925</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41285.9345</v>
+        <v>41120.982</v>
       </c>
       <c r="I6" s="1">
-        <v>526.3919</v>
+        <v>525.3403</v>
       </c>
       <c r="J6" s="1">
-        <v>41812.3263</v>
+        <v>41646.3222</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1326</v>
+        <v>10.1529</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8714.065500000001</v>
+        <v>-8914.662</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0578</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.3341</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E7" s="1">
-        <v>4780.8917</v>
+        <v>4790.4651</v>
       </c>
       <c r="F7" s="1">
-        <v>1025.1291</v>
+        <v>1027.209</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49406.2132</v>
+        <v>49405.9823</v>
       </c>
       <c r="I7" s="1">
-        <v>1812.3263</v>
+        <v>1610.6782</v>
       </c>
       <c r="J7" s="1">
-        <v>51218.5396</v>
+        <v>51016.6606</v>
       </c>
       <c r="K7" s="1">
-        <v>48714.0655</v>
+        <v>48914.662</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1893</v>
+        <v>10.2108</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10593.7868</v>
+        <v>-10636.5441</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0115</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5806.0208</v>
+        <v>5817.6741</v>
       </c>
       <c r="F8" s="1">
-        <v>1134.9513</v>
+        <v>1108.0059</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>57390.1936</v>
+        <v>57390.1914</v>
       </c>
       <c r="I8" s="1">
-        <v>1218.5396</v>
+        <v>974.1341</v>
       </c>
       <c r="J8" s="1">
-        <v>58608.7332</v>
+        <v>58364.3255</v>
       </c>
       <c r="K8" s="1">
-        <v>59307.8523</v>
+        <v>59551.2062</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2149</v>
+        <v>10.2363</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2151.4013</v>
+        <v>2155.7093</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9067.138300000001</v>
+        <v>-8818.424800000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0426</v>
+        <v>-0.0435</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D9" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6940.9721</v>
+        <v>6925.68</v>
       </c>
       <c r="F9" s="1">
-        <v>1085.1126</v>
+        <v>1116.4608</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>69184.1398</v>
+        <v>68893.89479999999</v>
       </c>
       <c r="I9" s="1">
-        <v>2151.4013</v>
+        <v>2155.7093</v>
       </c>
       <c r="J9" s="1">
-        <v>71335.5411</v>
+        <v>71049.60400000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70526.3919</v>
+        <v>70525.3403</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1609</v>
+        <v>10.1832</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10815.8602</v>
+        <v>-11150.652</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0397</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.4908</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E10" s="1">
-        <v>8026.0848</v>
+        <v>8042.1408</v>
       </c>
       <c r="F10" s="1">
-        <v>552.8606</v>
+        <v>554.0119</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>84200.0502</v>
+        <v>84199.6059</v>
       </c>
       <c r="I10" s="1">
-        <v>1335.5411</v>
+        <v>1005.0573</v>
       </c>
       <c r="J10" s="1">
-        <v>85535.5912</v>
+        <v>85204.6632</v>
       </c>
       <c r="K10" s="1">
-        <v>81342.2521</v>
+        <v>81675.9923</v>
       </c>
       <c r="L10" s="1">
-        <v>10.1347</v>
+        <v>10.156</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5799.9498</v>
+        <v>-5823.6626</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0516</v>
+        <v>0.0513</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.6308</v>
       </c>
       <c r="C11" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D11" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E11" s="1">
-        <v>8578.945400000001</v>
+        <v>8596.152700000001</v>
       </c>
       <c r="F11" s="1">
-        <v>827.6844</v>
+        <v>829.3621000000001</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>91201.0524</v>
+        <v>91200.88250000001</v>
       </c>
       <c r="I11" s="1">
-        <v>5535.5912</v>
+        <v>5181.3947</v>
       </c>
       <c r="J11" s="1">
-        <v>96736.6436</v>
+        <v>96382.2772</v>
       </c>
       <c r="K11" s="1">
-        <v>87142.2019</v>
+        <v>87499.6548</v>
       </c>
       <c r="L11" s="1">
-        <v>10.1577</v>
+        <v>10.1789</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8798.9476</v>
+        <v>-8834.4483</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0126</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.3176</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E12" s="1">
-        <v>9406.629800000001</v>
+        <v>9425.5149</v>
       </c>
       <c r="F12" s="1">
-        <v>1254.7643</v>
+        <v>1257.2083</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97053.8435</v>
+        <v>97054.5266</v>
       </c>
       <c r="I12" s="1">
-        <v>6736.6436</v>
+        <v>6346.9464</v>
       </c>
       <c r="J12" s="1">
-        <v>103790.4871</v>
+        <v>103401.473</v>
       </c>
       <c r="K12" s="1">
-        <v>95941.1496</v>
+        <v>96334.10309999999</v>
       </c>
       <c r="L12" s="1">
-        <v>10.1993</v>
+        <v>10.2206</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12946.1565</v>
+        <v>-12997.3961</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0276</v>
+        <v>-0.028</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.2392</v>
       </c>
       <c r="C13" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D13" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E13" s="1">
-        <v>10661.3941</v>
+        <v>10682.7231</v>
       </c>
       <c r="F13" s="1">
-        <v>1058.2715</v>
+        <v>1060.4536</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>109164.1467</v>
+        <v>109163.5428</v>
       </c>
       <c r="I13" s="1">
-        <v>3790.4871</v>
+        <v>3349.5503</v>
       </c>
       <c r="J13" s="1">
-        <v>112954.6338</v>
+        <v>112513.0931</v>
       </c>
       <c r="K13" s="1">
-        <v>108887.306</v>
+        <v>109331.4992</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2132</v>
+        <v>10.2344</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10835.8533</v>
+        <v>-10879.9358</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0073</v>
+        <v>-0.0078</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D14" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>11719.6656</v>
+        <v>11743.1767</v>
       </c>
       <c r="F14" s="1">
-        <v>-11719.6656</v>
+        <v>-11743.1767</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>116949.371</v>
+        <v>116950.297</v>
       </c>
       <c r="I14" s="1">
-        <v>2954.6338</v>
+        <v>2469.6145</v>
       </c>
       <c r="J14" s="1">
-        <v>119904.0049</v>
+        <v>119419.9115</v>
       </c>
       <c r="K14" s="1">
-        <v>119723.1593</v>
+        <v>120211.435</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2156</v>
+        <v>10.2367</v>
       </c>
       <c r="M14" s="1">
         <v>0.25</v>
       </c>
       <c r="N14" s="1">
-        <v>2398.8137</v>
+        <v>2403.6127</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119348.1847</v>
+        <v>119353.9097</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0248</v>
+        <v>-0.0252</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.5675</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E3" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="F3" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9431.659</v>
+        <v>9394.071</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9431.659</v>
+        <v>9394.071</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0568</v>
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.0064</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E4" s="1">
-        <v>1949.5996</v>
+        <v>1945.7047</v>
       </c>
       <c r="F4" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19508.4733</v>
+        <v>19430.5853</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19508.4733</v>
+        <v>19430.5853</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2585</v>
+        <v>10.2791</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.004</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>10.0129</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E5" s="1">
-        <v>2948.96</v>
+        <v>2943.0617</v>
       </c>
       <c r="F5" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29527.6415</v>
+        <v>29409.7212</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29527.6415</v>
+        <v>29409.7212</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1731</v>
+        <v>10.1935</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>526.3919</v>
+        <v>525.3403</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9473.608099999999</v>
+        <v>-9474.6597</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.4583</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E6" s="1">
-        <v>3947.6717</v>
+        <v>3939.7725</v>
       </c>
       <c r="F6" s="1">
-        <v>881.2686</v>
+        <v>898.8373</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41285.9345</v>
+        <v>41120.982</v>
       </c>
       <c r="I6" s="1">
-        <v>526.3919</v>
+        <v>525.3403</v>
       </c>
       <c r="J6" s="1">
-        <v>41812.3263</v>
+        <v>41646.3222</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1326</v>
+        <v>10.1529</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9216.5718</v>
+        <v>-9419.185600000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0578</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.3341</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E7" s="1">
-        <v>4828.9403</v>
+        <v>4838.6098</v>
       </c>
       <c r="F7" s="1">
-        <v>1050.1415</v>
+        <v>1052.2718</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49902.7519</v>
+        <v>49902.5186</v>
       </c>
       <c r="I7" s="1">
-        <v>1309.8201</v>
+        <v>1106.1547</v>
       </c>
       <c r="J7" s="1">
-        <v>51212.572</v>
+        <v>51008.6733</v>
       </c>
       <c r="K7" s="1">
-        <v>49216.5718</v>
+        <v>49419.1856</v>
       </c>
       <c r="L7" s="1">
-        <v>10.192</v>
+        <v>10.2135</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10852.2669</v>
+        <v>-10896.0642</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0116</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5879.0818</v>
+        <v>5890.8816</v>
       </c>
       <c r="F8" s="1">
-        <v>1057.9642</v>
+        <v>1030.8641</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>58112.3715</v>
+        <v>58112.3693</v>
       </c>
       <c r="I8" s="1">
-        <v>457.5532</v>
+        <v>210.0905</v>
       </c>
       <c r="J8" s="1">
-        <v>58569.9247</v>
+        <v>58322.4598</v>
       </c>
       <c r="K8" s="1">
-        <v>60068.8387</v>
+        <v>60315.2498</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2174</v>
+        <v>10.2387</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2173.0231</v>
+        <v>2177.3744</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8284.530000000001</v>
+        <v>-8032.7161</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0432</v>
+        <v>-0.044</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D9" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6937.046</v>
+        <v>6921.7458</v>
       </c>
       <c r="F9" s="1">
-        <v>1221.2714</v>
+        <v>1219.2615</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69145.0058</v>
+        <v>68854.75810000001</v>
       </c>
       <c r="I9" s="1">
-        <v>2173.0231</v>
+        <v>2177.3744</v>
       </c>
       <c r="J9" s="1">
-        <v>71318.0289</v>
+        <v>71032.13250000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70526.3919</v>
+        <v>70525.3403</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1666</v>
+        <v>10.189</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12173.0231</v>
+        <v>-12177.3744</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0401</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.4908</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E10" s="1">
-        <v>8158.3174</v>
+        <v>8141.0073</v>
       </c>
       <c r="F10" s="1">
-        <v>594.2237</v>
+        <v>629.0894</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>85587.27650000001</v>
+        <v>85234.71799999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>85587.27650000001</v>
+        <v>85234.71799999999</v>
       </c>
       <c r="K10" s="1">
-        <v>82699.41499999999</v>
+        <v>82702.7147</v>
       </c>
       <c r="L10" s="1">
-        <v>10.1368</v>
+        <v>10.1588</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6233.8818</v>
+        <v>-6612.8621</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0525</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.6308</v>
       </c>
       <c r="C11" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D11" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E11" s="1">
-        <v>8752.5411</v>
+        <v>8770.0967</v>
       </c>
       <c r="F11" s="1">
-        <v>868.5847</v>
+        <v>870.3448</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>93046.514</v>
+        <v>93046.34080000001</v>
       </c>
       <c r="I11" s="1">
-        <v>3766.1182</v>
+        <v>3387.1379</v>
       </c>
       <c r="J11" s="1">
-        <v>96812.63219999999</v>
+        <v>96433.47870000001</v>
       </c>
       <c r="K11" s="1">
-        <v>88933.2969</v>
+        <v>89315.57670000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.1609</v>
+        <v>10.1841</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9233.75</v>
+        <v>-9271</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0128</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.3176</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E12" s="1">
-        <v>9621.1258</v>
+        <v>9640.441500000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1310.8415</v>
+        <v>1313.3961</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>99266.92750000001</v>
+        <v>99267.62609999999</v>
       </c>
       <c r="I12" s="1">
-        <v>4532.3681</v>
+        <v>4116.138</v>
       </c>
       <c r="J12" s="1">
-        <v>103799.2956</v>
+        <v>103383.7641</v>
       </c>
       <c r="K12" s="1">
-        <v>98167.0469</v>
+        <v>98586.57670000001</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2033</v>
+        <v>10.2264</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13524.7379</v>
+        <v>-13578.2825</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0282</v>
+        <v>-0.0287</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.2392</v>
       </c>
       <c r="C13" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D13" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E13" s="1">
-        <v>10931.9673</v>
+        <v>10953.8376</v>
       </c>
       <c r="F13" s="1">
-        <v>1075.0479</v>
+        <v>1027.1115</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>111934.5992</v>
+        <v>111933.9799</v>
       </c>
       <c r="I13" s="1">
-        <v>1007.6302</v>
+        <v>537.8554</v>
       </c>
       <c r="J13" s="1">
-        <v>112942.2294</v>
+        <v>112471.8354</v>
       </c>
       <c r="K13" s="1">
-        <v>111691.7848</v>
+        <v>112164.8593</v>
       </c>
       <c r="L13" s="1">
-        <v>10.217</v>
+        <v>10.2398</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11007.6302</v>
+        <v>-10537.8554</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0075</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D14" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>12007.0151</v>
+        <v>11980.949</v>
       </c>
       <c r="F14" s="1">
-        <v>-12007.0151</v>
+        <v>-11980.949</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119816.8033</v>
+        <v>119318.2713</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119816.8033</v>
+        <v>119318.2713</v>
       </c>
       <c r="K14" s="1">
-        <v>122699.415</v>
+        <v>122702.7147</v>
       </c>
       <c r="L14" s="1">
-        <v>10.219</v>
+        <v>10.2415</v>
       </c>
       <c r="M14" s="1">
         <v>0.25</v>
       </c>
       <c r="N14" s="1">
-        <v>2459.6926</v>
+        <v>2464.6135</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122276.496</v>
+        <v>121782.8848</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0254</v>
+        <v>-0.0257</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.5675</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E3" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="F3" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9431.659</v>
+        <v>9394.071</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9431.659</v>
+        <v>9394.071</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0568</v>
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.0064</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E4" s="1">
-        <v>1949.5996</v>
+        <v>1945.7047</v>
       </c>
       <c r="F4" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19508.4733</v>
+        <v>19430.5853</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19508.4733</v>
+        <v>19430.5853</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2585</v>
+        <v>10.2791</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.004</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>10.0129</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E5" s="1">
-        <v>2948.96</v>
+        <v>2943.0617</v>
       </c>
       <c r="F5" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29527.6415</v>
+        <v>29409.7212</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29527.6415</v>
+        <v>29409.7212</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1731</v>
+        <v>10.1935</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>526.3919</v>
+        <v>525.3403</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9473.608099999999</v>
+        <v>-9474.6597</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.4583</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E6" s="1">
-        <v>3947.6717</v>
+        <v>3939.7725</v>
       </c>
       <c r="F6" s="1">
-        <v>929.7989</v>
+        <v>947.4647</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41285.9345</v>
+        <v>41120.982</v>
       </c>
       <c r="I6" s="1">
-        <v>526.3919</v>
+        <v>525.3403</v>
       </c>
       <c r="J6" s="1">
-        <v>41812.3263</v>
+        <v>41646.3222</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1326</v>
+        <v>10.1529</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9724.115599999999</v>
+        <v>-9928.766900000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0578</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.3341</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E7" s="1">
-        <v>4877.4705</v>
+        <v>4887.2373</v>
       </c>
       <c r="F7" s="1">
-        <v>1045.304</v>
+        <v>1023.3489</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>50404.2683</v>
+        <v>50404.0327</v>
       </c>
       <c r="I7" s="1">
-        <v>802.2762</v>
+        <v>596.5734</v>
       </c>
       <c r="J7" s="1">
-        <v>51206.5445</v>
+        <v>51000.606</v>
       </c>
       <c r="K7" s="1">
-        <v>49724.1156</v>
+        <v>49928.7669</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1947</v>
+        <v>10.2162</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10802.2762</v>
+        <v>-10596.5734</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0117</v>
+        <v>-0.0125</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5922.7746</v>
+        <v>5910.5862</v>
       </c>
       <c r="F8" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>58544.2573</v>
+        <v>58306.7504</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58544.2573</v>
+        <v>58306.7504</v>
       </c>
       <c r="K8" s="1">
-        <v>60526.3919</v>
+        <v>60525.3403</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2193</v>
+        <v>10.2402</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2194.8617</v>
+        <v>2199.2568</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7805.1383</v>
+        <v>-7800.7432</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0435</v>
+        <v>-0.0442</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D9" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6934.4493</v>
+        <v>6920.2384</v>
       </c>
       <c r="F9" s="1">
-        <v>1223.4624</v>
+        <v>1221.4525</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>69119.1232</v>
+        <v>68839.764</v>
       </c>
       <c r="I9" s="1">
-        <v>2194.8617</v>
+        <v>2199.2568</v>
       </c>
       <c r="J9" s="1">
-        <v>71313.9849</v>
+        <v>71039.02069999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70526.3919</v>
+        <v>70525.3403</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1704</v>
+        <v>10.1912</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12194.8617</v>
+        <v>-12199.2568</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0404</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.4908</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E10" s="1">
-        <v>8157.9117</v>
+        <v>8141.6909</v>
       </c>
       <c r="F10" s="1">
-        <v>772.3198</v>
+        <v>806.4526</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>85583.02009999999</v>
+        <v>85241.87579999999</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>85583.02009999999</v>
+        <v>85241.87579999999</v>
       </c>
       <c r="K10" s="1">
-        <v>82721.2536</v>
+        <v>82724.59699999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.14</v>
+        <v>10.1606</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8102.2526</v>
+        <v>-8477.267900000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0525</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.6308</v>
       </c>
       <c r="C11" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D11" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E11" s="1">
-        <v>8930.2315</v>
+        <v>8948.1435</v>
       </c>
       <c r="F11" s="1">
-        <v>911.1845</v>
+        <v>913.0305</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>94935.50509999999</v>
+        <v>94935.32829999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1897.7474</v>
+        <v>1522.7321</v>
       </c>
       <c r="J11" s="1">
-        <v>96833.2525</v>
+        <v>96458.0604</v>
       </c>
       <c r="K11" s="1">
-        <v>90823.5062</v>
+        <v>91201.8649</v>
       </c>
       <c r="L11" s="1">
-        <v>10.1703</v>
+        <v>10.1923</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9686.6203</v>
+        <v>-9725.6922</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0131</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.3176</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E12" s="1">
-        <v>9841.415999999999</v>
+        <v>9861.174000000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1183.524</v>
+        <v>1141.1006</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>101539.7939</v>
+        <v>101540.5085</v>
       </c>
       <c r="I12" s="1">
-        <v>2211.1271</v>
+        <v>1797.0399</v>
       </c>
       <c r="J12" s="1">
-        <v>103750.921</v>
+        <v>103337.5484</v>
       </c>
       <c r="K12" s="1">
-        <v>100510.1265</v>
+        <v>100927.5571</v>
       </c>
       <c r="L12" s="1">
-        <v>10.213</v>
+        <v>10.2348</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12211.1271</v>
+        <v>-11797.0399</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0289</v>
+        <v>-0.0293</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.2392</v>
       </c>
       <c r="C13" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D13" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E13" s="1">
-        <v>11024.94</v>
+        <v>11002.2745</v>
       </c>
       <c r="F13" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>112886.5657</v>
+        <v>112428.9429</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>112886.5657</v>
+        <v>112428.9429</v>
       </c>
       <c r="K13" s="1">
-        <v>112721.2536</v>
+        <v>112724.597</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2242</v>
+        <v>10.2456</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0076</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D14" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>12001.5788</v>
+        <v>11976.9619</v>
       </c>
       <c r="F14" s="1">
-        <v>-12001.5788</v>
+        <v>-11976.9619</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119762.5548</v>
+        <v>119278.5637</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119762.5548</v>
+        <v>119278.5637</v>
       </c>
       <c r="K14" s="1">
-        <v>122721.2536</v>
+        <v>122724.597</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2254</v>
+        <v>10.2467</v>
       </c>
       <c r="M14" s="1">
         <v>0.25</v>
       </c>
       <c r="N14" s="1">
-        <v>2480.6115</v>
+        <v>2475.5118</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122243.1663</v>
+        <v>121754.0755</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0254</v>
+        <v>-0.0257</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.5675</v>
       </c>
       <c r="C2" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D2" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E3" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="F3" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9431.659</v>
+        <v>9394.071</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9431.659</v>
+        <v>9394.071</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0568</v>
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.0064</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E4" s="1">
-        <v>1949.5996</v>
+        <v>1945.7047</v>
       </c>
       <c r="F4" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19508.4733</v>
+        <v>19430.5853</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19508.4733</v>
+        <v>19430.5853</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.2585</v>
+        <v>10.2791</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.004</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>10.0129</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E5" s="1">
-        <v>2948.96</v>
+        <v>2943.0617</v>
       </c>
       <c r="F5" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29527.6415</v>
+        <v>29409.7212</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29527.6415</v>
+        <v>29409.7212</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1731</v>
+        <v>10.1935</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>526.3919</v>
+        <v>525.3403</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9473.608099999999</v>
+        <v>-9474.6597</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.4583</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E6" s="1">
-        <v>3947.6717</v>
+        <v>3939.7725</v>
       </c>
       <c r="F6" s="1">
-        <v>978.8144</v>
+        <v>996.5784</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41285.9345</v>
+        <v>41120.982</v>
       </c>
       <c r="I6" s="1">
-        <v>526.3919</v>
+        <v>525.3403</v>
       </c>
       <c r="J6" s="1">
-        <v>41812.3263</v>
+        <v>41646.3222</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.1326</v>
+        <v>10.1529</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10236.7348</v>
+        <v>-10443.4439</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0578</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.3341</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E7" s="1">
-        <v>4926.4861</v>
+        <v>4936.3509</v>
       </c>
       <c r="F7" s="1">
-        <v>995.6994</v>
+        <v>973.6446999999999</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50910.7997</v>
+        <v>50910.5617</v>
       </c>
       <c r="I7" s="1">
-        <v>289.6571</v>
+        <v>81.8963</v>
       </c>
       <c r="J7" s="1">
-        <v>51200.4568</v>
+        <v>50992.4581</v>
       </c>
       <c r="K7" s="1">
-        <v>50236.7348</v>
+        <v>50443.4439</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1973</v>
+        <v>10.2188</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10289.6571</v>
+        <v>-10081.8963</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0118</v>
+        <v>-0.0127</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>5922.1855</v>
+        <v>5909.9957</v>
       </c>
       <c r="F8" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>58538.4344</v>
+        <v>58300.9251</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58538.4344</v>
+        <v>58300.9251</v>
       </c>
       <c r="K8" s="1">
-        <v>60526.3919</v>
+        <v>60525.3403</v>
       </c>
       <c r="L8" s="1">
-        <v>10.2203</v>
+        <v>10.2412</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2216.9187</v>
+        <v>2221.3579</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7783.0813</v>
+        <v>-7778.6421</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0435</v>
+        <v>-0.0441</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D9" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6933.8602</v>
+        <v>6919.6479</v>
       </c>
       <c r="F9" s="1">
-        <v>1225.6753</v>
+        <v>1223.6654</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>69113.25139999999</v>
+        <v>68833.8898</v>
       </c>
       <c r="I9" s="1">
-        <v>2216.9187</v>
+        <v>2221.3579</v>
       </c>
       <c r="J9" s="1">
-        <v>71330.1701</v>
+        <v>71055.24770000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70526.3919</v>
+        <v>70525.3403</v>
       </c>
       <c r="L9" s="1">
-        <v>10.1713</v>
+        <v>10.192</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12216.9187</v>
+        <v>-12221.3579</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0407</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.4908</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E10" s="1">
-        <v>8159.5355</v>
+        <v>8143.3133</v>
       </c>
       <c r="F10" s="1">
-        <v>952.5739</v>
+        <v>951.3119</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85600.0551</v>
+        <v>85258.8616</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>85600.0551</v>
+        <v>85258.8616</v>
       </c>
       <c r="K10" s="1">
-        <v>82743.3106</v>
+        <v>82746.6982</v>
       </c>
       <c r="L10" s="1">
-        <v>10.1407</v>
+        <v>10.1613</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9993.2619</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0525</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.6308</v>
       </c>
       <c r="C11" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D11" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E11" s="1">
-        <v>9112.109399999999</v>
+        <v>9094.6252</v>
       </c>
       <c r="F11" s="1">
-        <v>941.2968</v>
+        <v>938.782</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>96869.0122</v>
+        <v>96489.42570000001</v>
       </c>
       <c r="I11" s="1">
-        <v>6.7381</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>96875.7504</v>
+        <v>96489.42570000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92736.57249999999</v>
+        <v>92746.6982</v>
       </c>
       <c r="L11" s="1">
-        <v>10.1773</v>
+        <v>10.198</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10006.7381</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0133</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.3176</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E12" s="1">
-        <v>10053.4062</v>
+        <v>10033.4072</v>
       </c>
       <c r="F12" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>103727.0236</v>
+        <v>103313.9938</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>103727.0236</v>
+        <v>103313.9938</v>
       </c>
       <c r="K12" s="1">
-        <v>102743.3106</v>
+        <v>102746.6982</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2198</v>
+        <v>10.2405</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0295</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.2392</v>
       </c>
       <c r="C13" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D13" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E13" s="1">
-        <v>11022.6238</v>
+        <v>11000.6842</v>
       </c>
       <c r="F13" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>112862.8499</v>
+        <v>112412.6917</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>112862.8499</v>
+        <v>112412.6917</v>
       </c>
       <c r="K13" s="1">
-        <v>112743.3106</v>
+        <v>112746.6982</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2284</v>
+        <v>10.2491</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0076</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D14" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>11999.2626</v>
+        <v>11975.3716</v>
       </c>
       <c r="F14" s="1">
-        <v>-11999.2626</v>
+        <v>-11975.3716</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119739.4418</v>
+        <v>119262.7255</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119739.4418</v>
+        <v>119262.7255</v>
       </c>
       <c r="K14" s="1">
-        <v>122743.3106</v>
+        <v>122746.6982</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2292</v>
+        <v>10.2499</v>
       </c>
       <c r="M14" s="1">
         <v>0.25</v>
       </c>
       <c r="N14" s="1">
-        <v>2480.0904</v>
+        <v>2475.1539</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122219.5322</v>
+        <v>121737.8795</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0254</v>
+        <v>-0.0257</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +4454,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.2353</v>
+        <v>10.2559</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2156</v>
+        <v>10.2367</v>
       </c>
       <c r="E3" s="1">
-        <v>10.219</v>
+        <v>10.2415</v>
       </c>
       <c r="F3" s="1">
-        <v>10.2254</v>
+        <v>10.2467</v>
       </c>
       <c r="G3" s="1">
-        <v>10.2292</v>
+        <v>10.2499</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0514</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0067</v>
+        <v>-0.0189</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0043</v>
+        <v>-0.0165</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0049</v>
+        <v>-0.0174</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0055</v>
+        <v>-0.0178</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0056</v>
+        <v>-0.0179</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1078</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1208</v>
+        <v>0.122</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1199</v>
+        <v>0.1213</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1209</v>
+        <v>0.1222</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1213</v>
+        <v>0.1225</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1216</v>
+        <v>0.1228</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.6651</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.2237</v>
+        <v>-0.322</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.2056</v>
+        <v>-0.3036</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.2091</v>
+        <v>-0.3085</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.213</v>
+        <v>-0.3108</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.2136</v>
+        <v>-0.311</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0333</v>
+        <v>0.0256</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0369</v>
+        <v>0.0291</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0358</v>
+        <v>0.028</v>
       </c>
       <c r="F7" s="3">
-        <v>0.035</v>
+        <v>0.0273</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0345</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5203.1182</v>
+        <v>5192.6053</v>
       </c>
       <c r="D8" s="1">
-        <v>5076.6068</v>
+        <v>5084.6622</v>
       </c>
       <c r="E8" s="1">
-        <v>5159.1077</v>
+        <v>5167.3281</v>
       </c>
       <c r="F8" s="1">
-        <v>5201.8651</v>
+        <v>5200.1088</v>
       </c>
       <c r="G8" s="1">
-        <v>5223.401</v>
+        <v>5221.8521</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P81_KFSDIV.xlsx
+++ b/output/1Y_P81_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.5675</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.967000000000001</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0064</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0129</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4583</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3341</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.884600000000001</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.967499999999999</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4908</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.6308</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.3176</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.2392</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.978999999999999</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.5675</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.967000000000001</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0064</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0129</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4583</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3341</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.884600000000001</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.967499999999999</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4908</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.6308</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.3176</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.2392</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.978999999999999</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.5675</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.967000000000001</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0064</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0129</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4583</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3341</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.884600000000001</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.967499999999999</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4908</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.6308</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.3176</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.2392</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.978999999999999</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.5675</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.967000000000001</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0064</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0129</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4583</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3341</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.884600000000001</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.967499999999999</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4908</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.6308</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.3176</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.2392</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.978999999999999</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.5675</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>9.967000000000001</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0064</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.0129</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4583</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3341</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>9.884600000000001</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9.967499999999999</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4908</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.6308</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.3176</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.2392</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>9.978999999999999</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6176.277</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.971</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9726</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9721</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9717</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
